--- a/5.0.0/StructureDefinition-cdm-claim-facility.xlsx
+++ b/5.0.0/StructureDefinition-cdm-claim-facility.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6734" uniqueCount="864">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1865,6 +1865,16 @@
   </si>
   <si>
     <t>Indicates whether the claim is a crossover claim where a portion is paid by Medicare</t>
+  </si>
+  <si>
+    <t>lineOfBusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/line-of-business}
+</t>
+  </si>
+  <si>
+    <t>Code for the line of business</t>
   </si>
   <si>
     <t>priorAuthorizationIndicator</t>
@@ -2982,7 +2992,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL195"/>
+  <dimension ref="A1:AL196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -15253,43 +15263,41 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>129</v>
+        <v>599</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>75</v>
       </c>
@@ -15337,7 +15345,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>73</v>
@@ -15346,7 +15354,7 @@
         <v>74</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>135</v>
@@ -15363,40 +15371,42 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>600</v>
+        <v>365</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M115" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N115" t="s" s="2">
-        <v>602</v>
+        <v>213</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>75</v>
@@ -15445,19 +15455,19 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>599</v>
+        <v>367</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>75</v>
@@ -15466,12 +15476,12 @@
         <v>75</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15494,19 +15504,17 @@
         <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" s="2"/>
+      <c r="N116" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
@@ -15555,7 +15563,7 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>83</v>
@@ -15581,7 +15589,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15589,7 +15597,7 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>83</v>
@@ -15601,22 +15609,22 @@
         <v>75</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>217</v>
+        <v>447</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>75</v>
@@ -15665,10 +15673,10 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -15680,10 +15688,10 @@
         <v>96</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>75</v>
@@ -15691,7 +15699,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15699,7 +15707,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>83</v>
@@ -15711,20 +15719,22 @@
         <v>75</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J118" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="K118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>75</v>
@@ -15773,10 +15783,10 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -15788,10 +15798,10 @@
         <v>96</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>75</v>
@@ -15799,7 +15809,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15807,7 +15817,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>83</v>
@@ -15819,20 +15829,20 @@
         <v>75</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>85</v>
+        <v>617</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>75</v>
@@ -15881,10 +15891,10 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
@@ -15907,7 +15917,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15918,7 +15928,7 @@
         <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>75</v>
@@ -15933,16 +15943,14 @@
         <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" s="2"/>
+      <c r="N120" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>75</v>
@@ -15991,13 +15999,13 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>75</v>
@@ -16017,7 +16025,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16028,7 +16036,7 @@
         <v>73</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>75</v>
@@ -16040,19 +16048,19 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="K121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>75</v>
@@ -16101,13 +16109,13 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>75</v>
@@ -16127,7 +16135,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16150,17 +16158,19 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>356</v>
+        <v>631</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>75</v>
@@ -16209,7 +16219,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>73</v>
@@ -16235,7 +16245,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16258,16 +16268,18 @@
         <v>75</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>164</v>
+        <v>637</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>165</v>
+        <v>638</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>75</v>
       </c>
@@ -16315,7 +16327,7 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>166</v>
+        <v>636</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>73</v>
@@ -16327,7 +16339,7 @@
         <v>75</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>75</v>
@@ -16336,23 +16348,23 @@
         <v>75</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>75</v>
@@ -16364,17 +16376,15 @@
         <v>75</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>75</v>
@@ -16423,19 +16433,19 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>75</v>
@@ -16449,11 +16459,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16466,26 +16476,24 @@
         <v>75</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N125" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>75</v>
       </c>
@@ -16533,7 +16541,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>73</v>
@@ -16554,47 +16562,47 @@
         <v>75</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>641</v>
+        <v>129</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>642</v>
+        <v>365</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>643</v>
+        <v>366</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>644</v>
+        <v>212</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>645</v>
+        <v>213</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>75</v>
@@ -16643,19 +16651,19 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>640</v>
+        <v>367</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>75</v>
@@ -16664,12 +16672,12 @@
         <v>75</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16677,7 +16685,7 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>83</v>
@@ -16692,17 +16700,19 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>178</v>
+        <v>644</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>75</v>
@@ -16727,13 +16737,13 @@
         <v>75</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>650</v>
+        <v>75</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>651</v>
+        <v>75</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>75</v>
@@ -16751,10 +16761,10 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>83</v>
@@ -16777,7 +16787,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16800,17 +16810,17 @@
         <v>75</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>653</v>
+        <v>178</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>75</v>
@@ -16835,13 +16845,13 @@
         <v>75</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>75</v>
+        <v>653</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>75</v>
+        <v>654</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>75</v>
@@ -16859,7 +16869,7 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>73</v>
@@ -16885,7 +16895,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16896,7 +16906,7 @@
         <v>73</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>75</v>
@@ -16908,17 +16918,17 @@
         <v>75</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>356</v>
+        <v>656</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
@@ -16967,13 +16977,13 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>75</v>
@@ -16993,7 +17003,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17004,7 +17014,7 @@
         <v>73</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>75</v>
@@ -17016,16 +17026,18 @@
         <v>75</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>165</v>
+        <v>662</v>
       </c>
       <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>75</v>
       </c>
@@ -17073,19 +17085,19 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>166</v>
+        <v>660</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>75</v>
@@ -17094,12 +17106,12 @@
         <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17110,7 +17122,7 @@
         <v>73</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>75</v>
@@ -17122,13 +17134,13 @@
         <v>75</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17167,29 +17179,31 @@
         <v>75</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB131" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD131" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>75</v>
@@ -17198,16 +17212,14 @@
         <v>75</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>663</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
         <v>75</v>
       </c>
@@ -17216,7 +17228,7 @@
         <v>73</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>75</v>
@@ -17228,13 +17240,13 @@
         <v>75</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>664</v>
+        <v>129</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>665</v>
+        <v>130</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>665</v>
+        <v>131</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17273,16 +17285,14 @@
         <v>75</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB132" s="2"/>
       <c r="AC132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE132" t="s" s="2">
         <v>170</v>
@@ -17294,7 +17304,7 @@
         <v>74</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>135</v>
@@ -17306,12 +17316,12 @@
         <v>75</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>666</v>
@@ -17419,7 +17429,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>669</v>
@@ -17527,7 +17537,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>672</v>
@@ -17635,43 +17645,41 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B136" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>129</v>
+        <v>676</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>365</v>
+        <v>677</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>75</v>
       </c>
@@ -17719,7 +17727,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>73</v>
@@ -17728,7 +17736,7 @@
         <v>74</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>135</v>
@@ -17745,40 +17753,42 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>677</v>
+        <v>365</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N137" t="s" s="2">
-        <v>679</v>
+        <v>213</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>75</v>
@@ -17827,19 +17837,19 @@
         <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>676</v>
+        <v>367</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>75</v>
@@ -17848,12 +17858,12 @@
         <v>75</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17861,10 +17871,10 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>75</v>
@@ -17879,14 +17889,14 @@
         <v>436</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>75</v>
@@ -17935,13 +17945,13 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>75</v>
@@ -17961,7 +17971,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17987,14 +17997,14 @@
         <v>436</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>75</v>
@@ -18043,7 +18053,7 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>73</v>
@@ -18069,7 +18079,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18095,14 +18105,14 @@
         <v>436</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>75</v>
@@ -18151,7 +18161,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>73</v>
@@ -18177,7 +18187,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18203,14 +18213,14 @@
         <v>436</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>75</v>
@@ -18259,7 +18269,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>73</v>
@@ -18285,7 +18295,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18296,7 +18306,7 @@
         <v>73</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>75</v>
@@ -18308,17 +18318,17 @@
         <v>75</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>75</v>
@@ -18343,13 +18353,13 @@
         <v>75</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>700</v>
+        <v>75</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>701</v>
+        <v>75</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>75</v>
@@ -18367,13 +18377,13 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>75</v>
@@ -18393,7 +18403,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18419,16 +18429,14 @@
         <v>178</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>75</v>
@@ -18456,10 +18464,10 @@
         <v>343</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>75</v>
@@ -18477,7 +18485,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>73</v>
@@ -18503,15 +18511,15 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>710</v>
+        <v>75</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>83</v>
@@ -18529,16 +18537,16 @@
         <v>178</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>75</v>
@@ -18566,10 +18574,10 @@
         <v>343</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>75</v>
@@ -18587,10 +18595,10 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>83</v>
@@ -18613,18 +18621,18 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>75</v>
+        <v>713</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>75</v>
@@ -18639,16 +18647,16 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -18676,10 +18684,10 @@
         <v>343</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>75</v>
@@ -18697,13 +18705,13 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>75</v>
@@ -18723,7 +18731,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18749,16 +18757,16 @@
         <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>75</v>
@@ -18786,10 +18794,10 @@
         <v>343</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>75</v>
@@ -18807,7 +18815,7 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>73</v>
@@ -18833,7 +18841,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18844,7 +18852,7 @@
         <v>73</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>75</v>
@@ -18856,17 +18864,19 @@
         <v>75</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>490</v>
+        <v>178</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="M147" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="N147" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>75</v>
@@ -18891,13 +18901,13 @@
         <v>75</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>75</v>
+        <v>732</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>75</v>
+        <v>733</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>75</v>
@@ -18915,13 +18925,13 @@
         <v>75</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>75</v>
@@ -18933,7 +18943,7 @@
         <v>75</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>75</v>
@@ -18941,7 +18951,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18964,17 +18974,17 @@
         <v>75</v>
       </c>
       <c r="J148" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>75</v>
@@ -18999,13 +19009,13 @@
         <v>75</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>740</v>
+        <v>75</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>741</v>
+        <v>75</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>75</v>
@@ -19023,7 +19033,7 @@
         <v>75</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>73</v>
@@ -19041,7 +19051,7 @@
         <v>75</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>75</v>
@@ -19049,7 +19059,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19072,17 +19082,17 @@
         <v>75</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>75</v>
@@ -19107,13 +19117,13 @@
         <v>75</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>75</v>
+        <v>743</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>75</v>
+        <v>744</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>75</v>
@@ -19131,7 +19141,7 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>73</v>
@@ -19149,7 +19159,7 @@
         <v>75</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>75</v>
@@ -19157,7 +19167,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19180,16 +19190,18 @@
         <v>75</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>85</v>
+        <v>746</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>164</v>
+        <v>747</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>165</v>
+        <v>748</v>
       </c>
       <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
+      <c r="N150" t="s" s="2">
+        <v>749</v>
+      </c>
       <c r="O150" t="s" s="2">
         <v>75</v>
       </c>
@@ -19237,7 +19249,7 @@
         <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>166</v>
+        <v>745</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>73</v>
@@ -19249,7 +19261,7 @@
         <v>75</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>75</v>
@@ -19258,23 +19270,23 @@
         <v>75</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>75</v>
@@ -19286,17 +19298,15 @@
         <v>75</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
         <v>75</v>
@@ -19333,31 +19343,31 @@
         <v>75</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AC151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>75</v>
@@ -19371,20 +19381,18 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>749</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>75</v>
@@ -19396,15 +19404,17 @@
         <v>75</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>750</v>
+        <v>129</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>751</v>
+        <v>225</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="M152" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
         <v>75</v>
@@ -19441,16 +19451,16 @@
         <v>75</v>
       </c>
       <c r="AA152" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AB152" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AC152" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD152" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AE152" t="s" s="2">
         <v>170</v>
@@ -19474,14 +19484,16 @@
         <v>75</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="B153" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
         <v>75</v>
       </c>
@@ -19499,7 +19511,7 @@
         <v>75</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J153" t="s" s="2">
         <v>753</v>
@@ -19508,14 +19520,10 @@
         <v>754</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>757</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
         <v>75</v>
       </c>
@@ -19563,19 +19571,19 @@
         <v>75</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>758</v>
+        <v>170</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>75</v>
@@ -19584,12 +19592,12 @@
         <v>75</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>759</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19600,80 +19608,80 @@
         <v>73</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>105</v>
+        <v>756</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N154" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="O154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE154" t="s" s="2">
         <v>761</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="M154" s="2"/>
-      <c r="N154" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P154" t="s" s="2">
-        <v>764</v>
-      </c>
-      <c r="Q154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>73</v>
@@ -19694,12 +19702,12 @@
         <v>75</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19710,34 +19718,36 @@
         <v>73</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I155" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P155" s="2"/>
+      <c r="P155" t="s" s="2">
+        <v>767</v>
+      </c>
       <c r="Q155" t="s" s="2">
         <v>75</v>
       </c>
@@ -19757,13 +19767,13 @@
         <v>75</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>75</v>
+        <v>768</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>75</v>
+        <v>769</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>75</v>
@@ -19781,7 +19791,7 @@
         <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>73</v>
@@ -19802,12 +19812,12 @@
         <v>75</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19830,17 +19840,17 @@
         <v>84</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>75</v>
@@ -19889,7 +19899,7 @@
         <v>75</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>73</v>
@@ -19898,7 +19908,7 @@
         <v>83</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>780</v>
+        <v>75</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>96</v>
@@ -19910,12 +19920,12 @@
         <v>75</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19938,19 +19948,17 @@
         <v>84</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>785</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>75</v>
@@ -19999,7 +20007,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>73</v>
@@ -20008,7 +20016,7 @@
         <v>83</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>75</v>
+        <v>783</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>96</v>
@@ -20020,12 +20028,12 @@
         <v>75</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20045,20 +20053,22 @@
         <v>75</v>
       </c>
       <c r="I158" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>790</v>
+        <v>105</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="M158" s="2"/>
+        <v>787</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>788</v>
+      </c>
       <c r="N158" t="s" s="2">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>75</v>
@@ -20107,7 +20117,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>73</v>
@@ -20128,12 +20138,12 @@
         <v>75</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>75</v>
+        <v>791</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20156,19 +20166,17 @@
         <v>75</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" s="2"/>
+      <c r="N159" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>798</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>75</v>
@@ -20217,7 +20225,7 @@
         <v>75</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>73</v>
@@ -20243,7 +20251,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20266,19 +20274,19 @@
         <v>75</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L160" t="s" s="2">
+      <c r="N160" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>75</v>
@@ -20327,7 +20335,7 @@
         <v>75</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>73</v>
@@ -20353,7 +20361,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20364,7 +20372,7 @@
         <v>73</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>75</v>
@@ -20376,17 +20384,19 @@
         <v>75</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>580</v>
+        <v>793</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>581</v>
+        <v>803</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M161" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>805</v>
+      </c>
       <c r="N161" t="s" s="2">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>75</v>
@@ -20435,13 +20445,13 @@
         <v>75</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>75</v>
@@ -20461,7 +20471,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20472,7 +20482,7 @@
         <v>73</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>75</v>
@@ -20484,19 +20494,17 @@
         <v>75</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>178</v>
+        <v>580</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>806</v>
+        <v>581</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>808</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>809</v>
+        <v>583</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>75</v>
@@ -20521,13 +20529,13 @@
         <v>75</v>
       </c>
       <c r="W162" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>810</v>
+        <v>75</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>811</v>
+        <v>75</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>75</v>
@@ -20545,13 +20553,13 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>75</v>
@@ -20571,7 +20579,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20582,7 +20590,7 @@
         <v>73</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>75</v>
@@ -20597,14 +20605,16 @@
         <v>178</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="M163" s="2"/>
+        <v>810</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>811</v>
+      </c>
       <c r="N163" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>75</v>
@@ -20632,10 +20642,10 @@
         <v>343</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>75</v>
@@ -20653,13 +20663,13 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>75</v>
@@ -20679,7 +20689,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20702,19 +20712,17 @@
         <v>75</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>818</v>
+        <v>178</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>821</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>75</v>
@@ -20739,13 +20747,13 @@
         <v>75</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>75</v>
+        <v>818</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>75</v>
+        <v>819</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>75</v>
@@ -20763,7 +20771,7 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>73</v>
@@ -20778,7 +20786,7 @@
         <v>96</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>823</v>
+        <v>75</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>75</v>
@@ -20789,7 +20797,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20812,17 +20820,19 @@
         <v>75</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>356</v>
+        <v>821</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>658</v>
+        <v>822</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="M165" s="2"/>
-      <c r="N165" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>75</v>
@@ -20871,7 +20881,7 @@
         <v>75</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>73</v>
@@ -20886,7 +20896,7 @@
         <v>96</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>75</v>
+        <v>826</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>75</v>
@@ -20897,7 +20907,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20908,7 +20918,7 @@
         <v>73</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>75</v>
@@ -20920,16 +20930,18 @@
         <v>75</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>165</v>
+        <v>828</v>
       </c>
       <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
+      <c r="N166" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O166" t="s" s="2">
         <v>75</v>
       </c>
@@ -20977,19 +20989,19 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>166</v>
+        <v>827</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>75</v>
@@ -20998,23 +21010,23 @@
         <v>75</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>75</v>
@@ -21026,17 +21038,15 @@
         <v>75</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
         <v>75</v>
@@ -21085,19 +21095,19 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>75</v>
@@ -21111,11 +21121,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21128,26 +21138,24 @@
         <v>75</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="M168" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N168" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
         <v>75</v>
       </c>
@@ -21195,7 +21203,7 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>73</v>
@@ -21216,45 +21224,47 @@
         <v>75</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>677</v>
+        <v>365</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M169" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N169" t="s" s="2">
-        <v>679</v>
+        <v>213</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>75</v>
@@ -21303,19 +21313,19 @@
         <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>829</v>
+        <v>367</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>75</v>
@@ -21324,12 +21334,12 @@
         <v>75</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21337,7 +21347,7 @@
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>83</v>
@@ -21352,17 +21362,17 @@
         <v>75</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>75</v>
@@ -21387,13 +21397,13 @@
         <v>75</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>700</v>
+        <v>75</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>701</v>
+        <v>75</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>75</v>
@@ -21411,10 +21421,10 @@
         <v>75</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>83</v>
@@ -21437,7 +21447,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21463,16 +21473,14 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>75</v>
@@ -21500,10 +21508,10 @@
         <v>343</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>75</v>
@@ -21521,7 +21529,7 @@
         <v>75</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>73</v>
@@ -21547,15 +21555,15 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>710</v>
+        <v>75</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>83</v>
@@ -21573,16 +21581,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>75</v>
@@ -21610,10 +21618,10 @@
         <v>343</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>75</v>
@@ -21631,10 +21639,10 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>83</v>
@@ -21657,18 +21665,18 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>75</v>
+        <v>713</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>75</v>
@@ -21683,16 +21691,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>834</v>
+        <v>714</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>835</v>
+        <v>716</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>75</v>
@@ -21720,10 +21728,10 @@
         <v>343</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>75</v>
@@ -21741,13 +21749,13 @@
         <v>75</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>75</v>
@@ -21793,16 +21801,16 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>725</v>
+        <v>837</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>727</v>
+        <v>838</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>75</v>
@@ -21830,10 +21838,10 @@
         <v>343</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>75</v>
@@ -21877,7 +21885,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -21888,7 +21896,7 @@
         <v>73</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>75</v>
@@ -21900,17 +21908,19 @@
         <v>75</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>743</v>
+        <v>178</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="M175" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="N175" t="s" s="2">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>75</v>
@@ -21935,13 +21945,13 @@
         <v>75</v>
       </c>
       <c r="W175" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>75</v>
+        <v>732</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>75</v>
+        <v>733</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>75</v>
@@ -21959,13 +21969,13 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>75</v>
@@ -21985,7 +21995,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22008,17 +22018,17 @@
         <v>75</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>75</v>
@@ -22067,7 +22077,7 @@
         <v>75</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>73</v>
@@ -22093,7 +22103,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22116,19 +22126,17 @@
         <v>75</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" s="2"/>
+      <c r="N177" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>798</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -22177,7 +22185,7 @@
         <v>75</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>73</v>
@@ -22203,7 +22211,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22226,19 +22234,19 @@
         <v>75</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L178" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>75</v>
@@ -22287,7 +22295,7 @@
         <v>75</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>73</v>
@@ -22313,7 +22321,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22324,7 +22332,7 @@
         <v>73</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G179" t="s" s="2">
         <v>75</v>
@@ -22336,17 +22344,19 @@
         <v>75</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>580</v>
+        <v>793</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>581</v>
+        <v>803</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M179" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>805</v>
+      </c>
       <c r="N179" t="s" s="2">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>75</v>
@@ -22395,13 +22405,13 @@
         <v>75</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>75</v>
@@ -22421,7 +22431,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22444,17 +22454,17 @@
         <v>75</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>356</v>
+        <v>580</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>658</v>
+        <v>581</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>825</v>
+        <v>582</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>660</v>
+        <v>583</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>75</v>
@@ -22503,7 +22513,7 @@
         <v>75</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>73</v>
@@ -22529,7 +22539,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22540,7 +22550,7 @@
         <v>73</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>75</v>
@@ -22552,16 +22562,18 @@
         <v>75</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>85</v>
+        <v>356</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>164</v>
+        <v>661</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>165</v>
+        <v>828</v>
       </c>
       <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
+      <c r="N181" t="s" s="2">
+        <v>663</v>
+      </c>
       <c r="O181" t="s" s="2">
         <v>75</v>
       </c>
@@ -22609,19 +22621,19 @@
         <v>75</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>166</v>
+        <v>845</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>75</v>
@@ -22630,23 +22642,23 @@
         <v>75</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>75</v>
@@ -22658,17 +22670,15 @@
         <v>75</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M182" s="2"/>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
         <v>75</v>
@@ -22717,19 +22727,19 @@
         <v>75</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>75</v>
@@ -22743,11 +22753,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -22760,26 +22770,24 @@
         <v>75</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J183" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>365</v>
+        <v>225</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>366</v>
+        <v>226</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N183" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
         <v>75</v>
       </c>
@@ -22827,7 +22835,7 @@
         <v>75</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>367</v>
+        <v>170</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>73</v>
@@ -22848,45 +22856,47 @@
         <v>75</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G184" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I184" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>677</v>
+        <v>365</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M184" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N184" t="s" s="2">
-        <v>679</v>
+        <v>213</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>75</v>
@@ -22935,19 +22945,19 @@
         <v>75</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>846</v>
+        <v>367</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>75</v>
@@ -22956,12 +22966,12 @@
         <v>75</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -22969,7 +22979,7 @@
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F185" t="s" s="2">
         <v>83</v>
@@ -22984,17 +22994,17 @@
         <v>75</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>178</v>
+        <v>436</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>75</v>
@@ -23019,13 +23029,13 @@
         <v>75</v>
       </c>
       <c r="W185" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>700</v>
+        <v>75</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>701</v>
+        <v>75</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>75</v>
@@ -23043,10 +23053,10 @@
         <v>75</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>83</v>
@@ -23069,7 +23079,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23095,16 +23105,14 @@
         <v>178</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>75</v>
@@ -23132,10 +23140,10 @@
         <v>343</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>75</v>
@@ -23153,7 +23161,7 @@
         <v>75</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>73</v>
@@ -23179,7 +23187,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23187,7 +23195,7 @@
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F187" t="s" s="2">
         <v>83</v>
@@ -23205,16 +23213,16 @@
         <v>178</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>75</v>
@@ -23242,10 +23250,10 @@
         <v>343</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>75</v>
@@ -23263,10 +23271,10 @@
         <v>75</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>83</v>
@@ -23289,7 +23297,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23297,10 +23305,10 @@
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>75</v>
@@ -23315,16 +23323,16 @@
         <v>178</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>834</v>
+        <v>714</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>835</v>
+        <v>716</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>75</v>
@@ -23352,10 +23360,10 @@
         <v>343</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>75</v>
@@ -23373,13 +23381,13 @@
         <v>75</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>75</v>
@@ -23399,7 +23407,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23425,16 +23433,16 @@
         <v>178</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>725</v>
+        <v>837</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>727</v>
+        <v>838</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>75</v>
@@ -23462,10 +23470,10 @@
         <v>343</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>75</v>
@@ -23483,7 +23491,7 @@
         <v>75</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>73</v>
@@ -23509,7 +23517,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23520,7 +23528,7 @@
         <v>73</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>75</v>
@@ -23532,17 +23540,19 @@
         <v>75</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>743</v>
+        <v>178</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="M190" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="M190" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="N190" t="s" s="2">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>75</v>
@@ -23567,13 +23577,13 @@
         <v>75</v>
       </c>
       <c r="W190" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>75</v>
+        <v>732</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>75</v>
+        <v>733</v>
       </c>
       <c r="Z190" t="s" s="2">
         <v>75</v>
@@ -23591,13 +23601,13 @@
         <v>75</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>75</v>
@@ -23617,7 +23627,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23640,17 +23650,17 @@
         <v>75</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>791</v>
+        <v>747</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>75</v>
@@ -23699,7 +23709,7 @@
         <v>75</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>73</v>
@@ -23725,7 +23735,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -23748,19 +23758,17 @@
         <v>75</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="L192" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" s="2"/>
+      <c r="N192" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>798</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>75</v>
@@ -23809,7 +23817,7 @@
         <v>75</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>73</v>
@@ -23835,7 +23843,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -23858,19 +23866,19 @@
         <v>75</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="M193" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>75</v>
@@ -23919,7 +23927,7 @@
         <v>75</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>73</v>
@@ -23945,7 +23953,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -23956,7 +23964,7 @@
         <v>73</v>
       </c>
       <c r="F194" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>75</v>
@@ -23968,17 +23976,19 @@
         <v>75</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>580</v>
+        <v>793</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>581</v>
+        <v>803</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M194" s="2"/>
+        <v>804</v>
+      </c>
+      <c r="M194" t="s" s="2">
+        <v>805</v>
+      </c>
       <c r="N194" t="s" s="2">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>75</v>
@@ -24027,13 +24037,13 @@
         <v>75</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>75</v>
@@ -24053,7 +24063,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -24064,7 +24074,7 @@
         <v>73</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>75</v>
@@ -24076,17 +24086,17 @@
         <v>75</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>790</v>
+        <v>580</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>858</v>
+        <v>581</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>859</v>
+        <v>582</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>860</v>
+        <v>583</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>75</v>
@@ -24135,13 +24145,13 @@
         <v>75</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>75</v>
@@ -24156,6 +24166,114 @@
         <v>75</v>
       </c>
       <c r="AL195" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F196" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J196" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="K196" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="L196" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="M196" s="2"/>
+      <c r="N196" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P196" s="2"/>
+      <c r="Q196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK196" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL196" t="s" s="2">
         <v>75</v>
       </c>
     </row>
